--- a/results/metrics.xlsx
+++ b/results/metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keonapang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pangk\Softwares\evo2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BECC75A-C0E4-CF48-9548-8F43F1BED0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D0791A-41AC-430A-9C23-B8E0EBB5D029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="780" windowWidth="22560" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="375" windowWidth="18900" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
   <si>
     <t>MODEL_SIZE</t>
   </si>
@@ -106,11 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,15 +414,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,123 +458,123 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>8192</v>
+      </c>
+      <c r="D2">
+        <v>6.0772895812988281E-4</v>
+      </c>
+      <c r="E2">
+        <v>7.1191787719726563E-4</v>
+      </c>
+      <c r="F2">
+        <v>292.60174822807301</v>
+      </c>
+      <c r="G2">
+        <v>498.12</v>
+      </c>
+      <c r="H2">
+        <v>0.60774087905883789</v>
+      </c>
+      <c r="I2">
+        <v>0.87075171870609236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>50</v>
       </c>
-      <c r="C2">
-        <v>1024</v>
-      </c>
-      <c r="D2">
-        <v>4.291534423828125E-4</v>
-      </c>
-      <c r="E2">
-        <v>6.3014030456542969E-4</v>
-      </c>
-      <c r="F2">
-        <v>85.882005214691162</v>
-      </c>
-      <c r="G2">
-        <v>184.38705778121951</v>
-      </c>
-      <c r="H2">
-        <v>0.5762331485748291</v>
-      </c>
-      <c r="I2">
-        <v>0.75253699621231618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+      <c r="C3">
+        <v>2048</v>
+      </c>
+      <c r="D3">
+        <v>7.0333480834960938E-5</v>
+      </c>
+      <c r="E3">
+        <v>7.9084634780883789E-2</v>
+      </c>
+      <c r="F3">
+        <v>38.583533525466919</v>
+      </c>
+      <c r="G3">
+        <v>38.831560611724854</v>
+      </c>
+      <c r="H3">
+        <v>1.9262790679931641E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.94500000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>1000</v>
-      </c>
-      <c r="C3">
-        <v>8192</v>
-      </c>
-      <c r="D3">
-        <v>6.0772895812988281E-4</v>
-      </c>
-      <c r="E3">
-        <v>7.1191787719726562E-4</v>
-      </c>
-      <c r="F3">
-        <v>392.60174822807312</v>
-      </c>
-      <c r="G3">
-        <v>1082.802064418793</v>
-      </c>
-      <c r="H3">
-        <v>0.60774087905883789</v>
-      </c>
-      <c r="I3">
-        <v>0.87075171870609236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
       </c>
       <c r="C4">
         <v>2048</v>
       </c>
       <c r="D4">
-        <v>7.0333480834960938E-5</v>
+        <v>7.0095062255859375E-5</v>
       </c>
       <c r="E4">
-        <v>7.9084634780883789E-2</v>
+        <v>7.8333854675292969E-2</v>
       </c>
       <c r="F4">
-        <v>38.583533525466919</v>
+        <v>88.085714817047119</v>
       </c>
       <c r="G4">
-        <v>38.831560611724854</v>
+        <v>105.71521949768071</v>
       </c>
       <c r="H4">
-        <v>1.9262790679931641E-2</v>
+        <v>0.1248493194580078</v>
       </c>
       <c r="I4">
-        <v>0.94500000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.80695172882672872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C5">
         <v>2048</v>
       </c>
       <c r="D5">
-        <v>7.0095062255859375E-5</v>
+        <v>8.6307525634765625E-5</v>
       </c>
       <c r="E5">
-        <v>7.8333854675292969E-2</v>
+        <v>8.0115079879760742E-2</v>
       </c>
       <c r="F5">
-        <v>88.085714817047119</v>
+        <v>117.2730152606964</v>
       </c>
       <c r="G5">
-        <v>105.71521949768071</v>
+        <v>176.1336975097656</v>
       </c>
       <c r="H5">
-        <v>0.1248493194580078</v>
+        <v>0.2342572212219238</v>
       </c>
       <c r="I5">
-        <v>0.80695172882672872</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8042883825291629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -574,896 +582,934 @@
         <v>2000</v>
       </c>
       <c r="C6">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="D6">
-        <v>8.6307525634765625E-5</v>
+        <v>9.059906005859375E-5</v>
       </c>
       <c r="E6">
-        <v>8.0115079879760742E-2</v>
+        <v>7.9676628112792969E-2</v>
       </c>
       <c r="F6">
-        <v>117.2730152606964</v>
+        <v>79.840918779373169</v>
       </c>
       <c r="G6">
-        <v>176.1336975097656</v>
+        <v>111.6694149971008</v>
       </c>
       <c r="H6">
-        <v>0.2342572212219238</v>
+        <v>0.23664093017578119</v>
       </c>
       <c r="I6">
-        <v>0.8042883825291629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.73984266097674301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>4096</v>
+      </c>
+      <c r="D7">
+        <v>7.6055526733398438E-5</v>
+      </c>
+      <c r="E7">
+        <v>8.0001592636108398E-2</v>
+      </c>
+      <c r="F7">
+        <v>137.3794770240784</v>
+      </c>
+      <c r="G7">
+        <v>170.47432947158811</v>
+      </c>
+      <c r="H7">
+        <v>0.2043907642364502</v>
+      </c>
+      <c r="I7">
+        <v>0.81103705322455333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>2000</v>
-      </c>
-      <c r="C7">
-        <v>1024</v>
-      </c>
-      <c r="D7">
-        <v>9.059906005859375E-5</v>
-      </c>
-      <c r="E7">
-        <v>7.9676628112792969E-2</v>
-      </c>
-      <c r="F7">
-        <v>79.840918779373169</v>
-      </c>
-      <c r="G7">
-        <v>111.6694149971008</v>
-      </c>
-      <c r="H7">
-        <v>0.23664093017578119</v>
-      </c>
-      <c r="I7">
-        <v>0.73984266097674301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1000</v>
       </c>
       <c r="C8">
         <v>4096</v>
       </c>
       <c r="D8">
-        <v>7.6055526733398438E-5</v>
+        <v>7.8916549682617188E-5</v>
       </c>
       <c r="E8">
-        <v>8.0001592636108398E-2</v>
+        <v>7.8245639801025391E-2</v>
       </c>
       <c r="F8">
-        <v>137.3794770240784</v>
+        <v>192.26810622215271</v>
       </c>
       <c r="G8">
-        <v>170.47432947158811</v>
+        <v>305.46154499053961</v>
       </c>
       <c r="H8">
-        <v>0.2043907642364502</v>
+        <v>0.23829841613769531</v>
       </c>
       <c r="I8">
-        <v>0.81103705322455333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8064549656403609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>8192</v>
+      </c>
+      <c r="D9">
+        <v>7.43865966796875E-5</v>
+      </c>
+      <c r="E9">
+        <v>8.089447021484375E-2</v>
+      </c>
+      <c r="F9">
+        <v>57.547280550003052</v>
+      </c>
+      <c r="G9">
+        <v>58.208471775054932</v>
+      </c>
+      <c r="H9">
+        <v>2.247524261474609E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>2000</v>
-      </c>
-      <c r="C9">
-        <v>4096</v>
-      </c>
-      <c r="D9">
-        <v>7.8916549682617188E-5</v>
-      </c>
-      <c r="E9">
-        <v>7.8245639801025391E-2</v>
-      </c>
-      <c r="F9">
-        <v>192.26810622215271</v>
-      </c>
-      <c r="G9">
-        <v>305.46154499053961</v>
-      </c>
-      <c r="H9">
-        <v>0.23829841613769531</v>
-      </c>
-      <c r="I9">
-        <v>0.8064549656403609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>84</v>
       </c>
       <c r="C10">
         <v>8192</v>
       </c>
       <c r="D10">
-        <v>7.43865966796875E-5</v>
+        <v>9.3936920166015625E-5</v>
       </c>
       <c r="E10">
-        <v>8.089447021484375E-2</v>
+        <v>7.8030586242675781E-2</v>
       </c>
       <c r="F10">
-        <v>57.547280550003052</v>
+        <v>347.91014552116388</v>
       </c>
       <c r="G10">
-        <v>58.208471775054932</v>
+        <v>573.1292085647583</v>
       </c>
       <c r="H10">
-        <v>2.247524261474609E-2</v>
+        <v>0.24004626274108889</v>
       </c>
       <c r="I10">
-        <v>0.953125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.86667069159472743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C11">
-        <v>8192</v>
+        <v>1024</v>
       </c>
       <c r="D11">
-        <v>9.3936920166015625E-5</v>
+        <v>7.3909759521484375E-5</v>
       </c>
       <c r="E11">
-        <v>7.8030586242675781E-2</v>
+        <v>8.1191062927246094E-2</v>
       </c>
       <c r="F11">
-        <v>347.91014552116388</v>
+        <v>64.100641250610352</v>
       </c>
       <c r="G11">
-        <v>573.1292085647583</v>
+        <v>73.701385259628296</v>
       </c>
       <c r="H11">
-        <v>0.24004626274108889</v>
+        <v>0.12674260139465329</v>
       </c>
       <c r="I11">
-        <v>0.86667069159472743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.74337728243978241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>1024</v>
       </c>
       <c r="D12">
-        <v>7.3909759521484375E-5</v>
+        <v>6.3657760620117188E-5</v>
       </c>
       <c r="E12">
-        <v>8.1191062927246094E-2</v>
+        <v>7.8345060348510742E-2</v>
       </c>
       <c r="F12">
-        <v>64.100641250610352</v>
+        <v>35.595861434936523</v>
       </c>
       <c r="G12">
-        <v>73.701385259628296</v>
+        <v>35.743939161300659</v>
       </c>
       <c r="H12">
-        <v>0.12674260139465329</v>
+        <v>1.444363594055176E-2</v>
       </c>
       <c r="I12">
-        <v>0.74337728243978241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>1024</v>
       </c>
       <c r="D13">
-        <v>6.3657760620117188E-5</v>
+        <v>6.7949295043945313E-5</v>
       </c>
       <c r="E13">
-        <v>7.8345060348510742E-2</v>
+        <v>7.9379558563232422E-2</v>
       </c>
       <c r="F13">
-        <v>35.595861434936523</v>
+        <v>37.012632369995117</v>
       </c>
       <c r="G13">
-        <v>35.743939161300659</v>
+        <v>37.110794544219971</v>
       </c>
       <c r="H13">
-        <v>1.444363594055176E-2</v>
+        <v>1.984000205993652E-2</v>
       </c>
       <c r="I13">
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.84250000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>1024</v>
       </c>
       <c r="D14">
-        <v>6.7949295043945312E-5</v>
+        <v>6.866455078125E-5</v>
       </c>
       <c r="E14">
-        <v>7.9379558563232422E-2</v>
+        <v>7.8452825546264648E-2</v>
       </c>
       <c r="F14">
-        <v>37.012632369995117</v>
+        <v>38.584182977676392</v>
       </c>
       <c r="G14">
-        <v>37.110794544219971</v>
+        <v>38.576006412506104</v>
       </c>
       <c r="H14">
-        <v>1.984000205993652E-2</v>
+        <v>2.3112773895263668E-2</v>
       </c>
       <c r="I14">
-        <v>0.84250000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.88694852941176483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C15">
         <v>1024</v>
       </c>
       <c r="D15">
-        <v>6.866455078125E-5</v>
+        <v>6.29425048828125E-5</v>
       </c>
       <c r="E15">
-        <v>7.8452825546264648E-2</v>
+        <v>8.0399513244628906E-2</v>
       </c>
       <c r="F15">
-        <v>38.584182977676392</v>
+        <v>40.649885416030877</v>
       </c>
       <c r="G15">
-        <v>38.576006412506104</v>
+        <v>40.708509922027588</v>
       </c>
       <c r="H15">
-        <v>2.3112773895263668E-2</v>
+        <v>3.1287431716918952E-2</v>
       </c>
       <c r="I15">
-        <v>0.88694852941176483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.87903225806451613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C16">
         <v>1024</v>
       </c>
       <c r="D16">
-        <v>6.29425048828125E-5</v>
+        <v>6.4134597778320313E-5</v>
       </c>
       <c r="E16">
-        <v>8.0399513244628906E-2</v>
+        <v>8.030247688293457E-2</v>
       </c>
       <c r="F16">
-        <v>40.649885416030877</v>
+        <v>44.054735660552979</v>
       </c>
       <c r="G16">
-        <v>40.708509922027588</v>
+        <v>44.634720325469971</v>
       </c>
       <c r="H16">
-        <v>3.1287431716918952E-2</v>
+        <v>4.1395664215087891E-2</v>
       </c>
       <c r="I16">
-        <v>0.87903225806451613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.73280000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C17">
         <v>1024</v>
       </c>
       <c r="D17">
-        <v>6.4134597778320312E-5</v>
+        <v>6.7234039306640625E-5</v>
       </c>
       <c r="E17">
-        <v>8.030247688293457E-2</v>
+        <v>8.0014705657958984E-2</v>
       </c>
       <c r="F17">
-        <v>44.054735660552979</v>
+        <v>51.576820850372307</v>
       </c>
       <c r="G17">
-        <v>44.634720325469971</v>
+        <v>54.04384183883667</v>
       </c>
       <c r="H17">
-        <v>4.1395664215087891E-2</v>
+        <v>6.893467903137207E-2</v>
       </c>
       <c r="I17">
-        <v>0.73280000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.74465351772084931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="D18">
-        <v>6.7234039306640625E-5</v>
+        <v>5.8412551879882813E-5</v>
       </c>
       <c r="E18">
-        <v>8.0014705657958984E-2</v>
+        <v>8.0636501312255859E-2</v>
       </c>
       <c r="F18">
-        <v>51.576820850372307</v>
+        <v>35.498754978179932</v>
       </c>
       <c r="G18">
-        <v>54.04384183883667</v>
+        <v>35.448276519775391</v>
       </c>
       <c r="H18">
-        <v>6.893467903137207E-2</v>
+        <v>1.4273881912231451E-2</v>
       </c>
       <c r="I18">
-        <v>0.74465351772084931</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>2048</v>
       </c>
       <c r="D19">
-        <v>5.8412551879882812E-5</v>
+        <v>6.4611434936523438E-5</v>
       </c>
       <c r="E19">
-        <v>8.0636501312255859E-2</v>
+        <v>8.1605195999145508E-2</v>
       </c>
       <c r="F19">
-        <v>35.498754978179932</v>
+        <v>38.598467111587517</v>
       </c>
       <c r="G19">
-        <v>35.448276519775391</v>
+        <v>38.527904510498047</v>
       </c>
       <c r="H19">
-        <v>1.4273881912231451E-2</v>
+        <v>1.8662929534912109E-2</v>
       </c>
       <c r="I19">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.94500000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <v>2048</v>
       </c>
       <c r="D20">
-        <v>6.4611434936523438E-5</v>
+        <v>7.7009201049804688E-5</v>
       </c>
       <c r="E20">
-        <v>8.1605195999145508E-2</v>
+        <v>7.929229736328125E-2</v>
       </c>
       <c r="F20">
-        <v>38.598467111587517</v>
+        <v>41.216373682022088</v>
       </c>
       <c r="G20">
-        <v>38.527904510498047</v>
+        <v>40.630982637405403</v>
       </c>
       <c r="H20">
-        <v>1.8662929534912109E-2</v>
+        <v>2.1825075149536129E-2</v>
       </c>
       <c r="I20">
-        <v>0.94500000000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C21">
         <v>2048</v>
       </c>
       <c r="D21">
-        <v>7.7009201049804688E-5</v>
+        <v>7.0333480834960938E-5</v>
       </c>
       <c r="E21">
-        <v>7.929229736328125E-2</v>
+        <v>8.1766843795776367E-2</v>
       </c>
       <c r="F21">
-        <v>41.216373682022088</v>
+        <v>45.427872657775879</v>
       </c>
       <c r="G21">
-        <v>40.630982637405403</v>
+        <v>45.455783128738403</v>
       </c>
       <c r="H21">
-        <v>2.1825075149536129E-2</v>
+        <v>2.9322147369384769E-2</v>
       </c>
       <c r="I21">
-        <v>0.953125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.91315136476426806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C22">
         <v>2048</v>
       </c>
       <c r="D22">
-        <v>7.0333480834960938E-5</v>
+        <v>6.7234039306640625E-5</v>
       </c>
       <c r="E22">
-        <v>8.1766843795776367E-2</v>
+        <v>8.0592870712280273E-2</v>
       </c>
       <c r="F22">
-        <v>45.427872657775879</v>
+        <v>51.626982927322388</v>
       </c>
       <c r="G22">
-        <v>45.455783128738403</v>
+        <v>52.554449558258057</v>
       </c>
       <c r="H22">
-        <v>2.9322147369384769E-2</v>
+        <v>4.4697761535644531E-2</v>
       </c>
       <c r="I22">
-        <v>0.91315136476426806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82350000000000012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C23">
         <v>2048</v>
       </c>
       <c r="D23">
-        <v>6.7234039306640625E-5</v>
+        <v>6.9856643676757813E-5</v>
       </c>
       <c r="E23">
-        <v>8.0592870712280273E-2</v>
+        <v>8.2574605941772461E-2</v>
       </c>
       <c r="F23">
-        <v>51.626982927322388</v>
+        <v>66.049001216888428</v>
       </c>
       <c r="G23">
-        <v>52.554449558258057</v>
+        <v>70.637213230133057</v>
       </c>
       <c r="H23">
-        <v>4.4697761535644531E-2</v>
+        <v>7.0622444152832031E-2</v>
       </c>
       <c r="I23">
-        <v>0.82350000000000012</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82402579410060695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="D24">
-        <v>6.9856643676757812E-5</v>
+        <v>7.1763992309570313E-5</v>
       </c>
       <c r="E24">
-        <v>8.2574605941772461E-2</v>
+        <v>7.8008890151977539E-2</v>
       </c>
       <c r="F24">
-        <v>66.049001216888428</v>
+        <v>36.599984407424927</v>
       </c>
       <c r="G24">
-        <v>70.637213230133057</v>
+        <v>36.58055567741394</v>
       </c>
       <c r="H24">
-        <v>7.0622444152832031E-2</v>
+        <v>1.4146804809570311E-2</v>
       </c>
       <c r="I24">
-        <v>0.82402579410060695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>4096</v>
       </c>
       <c r="D25">
-        <v>7.1763992309570312E-5</v>
+        <v>6.4134597778320313E-5</v>
       </c>
       <c r="E25">
-        <v>7.8008890151977539E-2</v>
+        <v>8.1058502197265625E-2</v>
       </c>
       <c r="F25">
-        <v>36.599984407424927</v>
+        <v>41.531962871551507</v>
       </c>
       <c r="G25">
-        <v>36.58055567741394</v>
+        <v>42.182427167892463</v>
       </c>
       <c r="H25">
-        <v>1.4146804809570311E-2</v>
+        <v>1.9539117813110352E-2</v>
       </c>
       <c r="I25">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.9524999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C26">
         <v>4096</v>
       </c>
       <c r="D26">
-        <v>6.4134597778320312E-5</v>
+        <v>6.5326690673828125E-5</v>
       </c>
       <c r="E26">
-        <v>8.1058502197265625E-2</v>
+        <v>7.9606771469116211E-2</v>
       </c>
       <c r="F26">
-        <v>41.531962871551507</v>
+        <v>46.15277886390686</v>
       </c>
       <c r="G26">
-        <v>42.182427167892463</v>
+        <v>46.642034292221069</v>
       </c>
       <c r="H26">
-        <v>1.9539117813110352E-2</v>
+        <v>2.2323846817016602E-2</v>
       </c>
       <c r="I26">
-        <v>0.9524999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C27">
         <v>4096</v>
       </c>
       <c r="D27">
-        <v>6.5326690673828125E-5</v>
+        <v>7.2240829467773438E-5</v>
       </c>
       <c r="E27">
-        <v>7.9606771469116211E-2</v>
+        <v>7.983851432800293E-2</v>
       </c>
       <c r="F27">
-        <v>46.15277886390686</v>
+        <v>55.277939796447747</v>
       </c>
       <c r="G27">
-        <v>46.642034292221069</v>
+        <v>54.895364999771118</v>
       </c>
       <c r="H27">
-        <v>2.2323846817016602E-2</v>
+        <v>2.8913497924804691E-2</v>
       </c>
       <c r="I27">
-        <v>0.953125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.91004962779156329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
       <c r="B28">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C28">
         <v>4096</v>
       </c>
       <c r="D28">
-        <v>7.2240829467773438E-5</v>
+        <v>6.4611434936523438E-5</v>
       </c>
       <c r="E28">
-        <v>7.983851432800293E-2</v>
+        <v>7.9238653182983398E-2</v>
       </c>
       <c r="F28">
-        <v>55.277939796447747</v>
+        <v>66.493428230285645</v>
       </c>
       <c r="G28">
-        <v>54.895364999771118</v>
+        <v>68.740899801254272</v>
       </c>
       <c r="H28">
-        <v>2.8913497924804691E-2</v>
+        <v>4.0802001953125E-2</v>
       </c>
       <c r="I28">
-        <v>0.91004962779156329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83460000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C29">
         <v>4096</v>
       </c>
       <c r="D29">
-        <v>6.4611434936523438E-5</v>
+        <v>6.8187713623046875E-5</v>
       </c>
       <c r="E29">
-        <v>7.9238653182983398E-2</v>
+        <v>8.9669704437255859E-2</v>
       </c>
       <c r="F29">
-        <v>66.493428230285645</v>
+        <v>94.082522392272949</v>
       </c>
       <c r="G29">
-        <v>68.740899801254272</v>
+        <v>103.22629642486569</v>
       </c>
       <c r="H29">
-        <v>4.0802001953125E-2</v>
+        <v>6.9185495376586914E-2</v>
       </c>
       <c r="I29">
-        <v>0.83460000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8365701906849039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
       <c r="B30">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="D30">
-        <v>6.8187713623046875E-5</v>
+        <v>6.389617919921875E-5</v>
       </c>
       <c r="E30">
-        <v>8.9669704437255859E-2</v>
+        <v>8.1757068634033203E-2</v>
       </c>
       <c r="F30">
-        <v>94.082522392272949</v>
+        <v>37.990873575210571</v>
       </c>
       <c r="G30">
-        <v>103.22629642486569</v>
+        <v>38.048940896987922</v>
       </c>
       <c r="H30">
-        <v>6.9185495376586914E-2</v>
+        <v>1.4162540435791021E-2</v>
       </c>
       <c r="I30">
-        <v>0.8365701906849039</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>8192</v>
       </c>
       <c r="D31">
-        <v>6.389617919921875E-5</v>
+        <v>7.8678131103515625E-5</v>
       </c>
       <c r="E31">
-        <v>8.1757068634033203E-2</v>
+        <v>7.8294277191162109E-2</v>
       </c>
       <c r="F31">
-        <v>37.990873575210571</v>
+        <v>49.1339430809021</v>
       </c>
       <c r="G31">
-        <v>38.048940896987922</v>
+        <v>49.294883251190193</v>
       </c>
       <c r="H31">
-        <v>1.4162540435791021E-2</v>
+        <v>1.873874664306641E-2</v>
       </c>
       <c r="I31">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.95250000000000012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
       <c r="B32">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>8192</v>
       </c>
       <c r="D32">
-        <v>7.8678131103515625E-5</v>
+        <v>7.0095062255859375E-5</v>
       </c>
       <c r="E32">
-        <v>7.8294277191162109E-2</v>
+        <v>7.8381061553955078E-2</v>
       </c>
       <c r="F32">
-        <v>49.1339430809021</v>
+        <v>57.605938673019409</v>
       </c>
       <c r="G32">
-        <v>49.294883251190193</v>
+        <v>58.121767044067383</v>
       </c>
       <c r="H32">
-        <v>1.873874664306641E-2</v>
+        <v>2.2097587585449219E-2</v>
       </c>
       <c r="I32">
-        <v>0.95250000000000012</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
       <c r="B33">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C33">
         <v>8192</v>
       </c>
       <c r="D33">
-        <v>7.0095062255859375E-5</v>
+        <v>7.343292236328125E-5</v>
       </c>
       <c r="E33">
-        <v>7.8381061553955078E-2</v>
+        <v>7.9686164855957031E-2</v>
       </c>
       <c r="F33">
-        <v>57.605938673019409</v>
+        <v>75.773548126220703</v>
       </c>
       <c r="G33">
-        <v>58.121767044067383</v>
+        <v>76.390538930892944</v>
       </c>
       <c r="H33">
-        <v>2.2097587585449219E-2</v>
+        <v>4.7724723815917969E-2</v>
       </c>
       <c r="I33">
-        <v>0.953125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.92524813895781644</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
       <c r="B34">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C34">
         <v>8192</v>
       </c>
       <c r="D34">
-        <v>7.343292236328125E-5</v>
+        <v>6.580352783203125E-5</v>
       </c>
       <c r="E34">
-        <v>7.9686164855957031E-2</v>
+        <v>7.9183816909790039E-2</v>
       </c>
       <c r="F34">
-        <v>75.773548126220703</v>
+        <v>98.013581991195679</v>
       </c>
       <c r="G34">
-        <v>76.390538930892944</v>
+        <v>102.6402730941772</v>
       </c>
       <c r="H34">
-        <v>4.7724723815917969E-2</v>
+        <v>4.1025876998901367E-2</v>
       </c>
       <c r="I34">
-        <v>0.92524813895781644</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.87390000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
       <c r="B35">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C35">
         <v>8192</v>
       </c>
       <c r="D35">
-        <v>6.580352783203125E-5</v>
+        <v>7.05718994140625E-5</v>
       </c>
       <c r="E35">
-        <v>7.9183816909790039E-2</v>
+        <v>7.8266143798828125E-2</v>
       </c>
       <c r="F35">
-        <v>98.013581991195679</v>
+        <v>153.42728710174561</v>
       </c>
       <c r="G35">
-        <v>102.6402730941772</v>
+        <v>169.7757804393768</v>
       </c>
       <c r="H35">
-        <v>4.1025876998901367E-2</v>
+        <v>6.7698240280151367E-2</v>
       </c>
       <c r="I35">
-        <v>0.87390000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.87332174613970126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
       <c r="B36">
-        <v>500</v>
+        <v>3890</v>
       </c>
       <c r="C36">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="D36">
-        <v>7.05718994140625E-5</v>
+        <v>126.515904426574</v>
       </c>
       <c r="E36">
-        <v>7.8266143798828125E-2</v>
+        <v>7.4979543685913003E-2</v>
       </c>
       <c r="F36">
-        <v>153.42728710174561</v>
+        <v>163.25106239318799</v>
       </c>
       <c r="G36">
-        <v>169.7757804393768</v>
+        <v>2295.0208680629698</v>
       </c>
       <c r="H36">
-        <v>6.7698240280151367E-2</v>
+        <v>0.56519317626953103</v>
       </c>
       <c r="I36">
-        <v>0.87332174613970126</v>
-      </c>
+        <v>0.87072246967732403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>3890</v>
+      </c>
+      <c r="C37">
+        <v>4096</v>
+      </c>
+      <c r="D37" s="2">
+        <v>9.8705291748046794E-5</v>
+      </c>
+      <c r="E37">
+        <v>7.9387903213500893E-2</v>
+      </c>
+      <c r="F37">
+        <v>214.197262048721</v>
+      </c>
+      <c r="G37">
+        <v>557.93479037284806</v>
+      </c>
+      <c r="H37">
+        <v>0.453510522842407</v>
+      </c>
+      <c r="I37">
+        <v>0.81447495266205705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
